--- a/EDC23通讯协议v0.3.xlsx
+++ b/EDC23通讯协议v0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CAB59B-306F-4AB1-AA08-74F90261289E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6896AB4F-3962-44D8-9E37-AC70F3886FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22370" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间单位：1ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆位置X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +272,10 @@
   </si>
   <si>
     <t>1表示有效，0表示无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间单位：0.1s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -712,7 +712,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1259,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1312,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1327,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1342,7 +1342,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1357,7 +1357,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1372,7 +1372,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1387,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1402,7 +1402,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1417,7 +1417,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1432,7 +1432,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1447,7 +1447,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1462,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1504,14 +1504,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B9:E9"/>
@@ -1526,39 +1551,14 @@
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
